--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2902,28 +2902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.911302337941</v>
+        <v>141.6550194010818</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.4361780888872</v>
+        <v>193.8186469228712</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.6471814432638</v>
+        <v>175.3208672867866</v>
       </c>
       <c r="AD2" t="n">
-        <v>120911.302337941</v>
+        <v>141655.0194010818</v>
       </c>
       <c r="AE2" t="n">
-        <v>165436.1780888872</v>
+        <v>193818.6469228712</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.569987246788165e-06</v>
+        <v>7.725790186101576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>149647.1814432638</v>
+        <v>175320.8672867866</v>
       </c>
     </row>
     <row r="3">
@@ -3008,28 +3008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.4963643778578</v>
+        <v>86.23999193244755</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.61501523741728</v>
+        <v>117.9973616018528</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.06228395864365</v>
+        <v>106.7358590209398</v>
       </c>
       <c r="AD3" t="n">
-        <v>65496.3643778578</v>
+        <v>86239.99193244755</v>
       </c>
       <c r="AE3" t="n">
-        <v>89615.01523741728</v>
+        <v>117997.3616018528</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.76362220630127e-06</v>
+        <v>1.143423892499173e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>81062.28395864365</v>
+        <v>106735.8590209398</v>
       </c>
     </row>
     <row r="4">
@@ -3114,28 +3114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.91916250753484</v>
+        <v>80.6627900621246</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.98404158966397</v>
+        <v>110.3663879540995</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.15959972569071</v>
+        <v>99.83317478798686</v>
       </c>
       <c r="AD4" t="n">
-        <v>59919.16250753484</v>
+        <v>80662.79006212459</v>
       </c>
       <c r="AE4" t="n">
-        <v>81984.04158966398</v>
+        <v>110366.3879540995</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.469469420343367e-06</v>
+        <v>1.26275086617872e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.712673611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>74159.59972569071</v>
+        <v>99833.17478798686</v>
       </c>
     </row>
     <row r="5">
@@ -3220,28 +3220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.44447995433213</v>
+        <v>66.94430501348444</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.22982762819898</v>
+        <v>91.59615149371317</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.85912127212522</v>
+        <v>82.85434335118151</v>
       </c>
       <c r="AD5" t="n">
-        <v>56444.47995433213</v>
+        <v>66944.30501348444</v>
       </c>
       <c r="AE5" t="n">
-        <v>77229.82762819898</v>
+        <v>91596.15149371317</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.955999821450955e-06</v>
+        <v>1.34500124446498e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.547743055555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>69859.12127212522</v>
+        <v>82854.34335118151</v>
       </c>
     </row>
     <row r="6">
@@ -3326,28 +3326,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.09254604141584</v>
+        <v>65.42177889997593</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.38005200543299</v>
+        <v>89.51296409610033</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.18588563861904</v>
+        <v>80.96997243502427</v>
       </c>
       <c r="AD6" t="n">
-        <v>55092.54604141584</v>
+        <v>65421.77889997594</v>
       </c>
       <c r="AE6" t="n">
-        <v>75380.05200543298</v>
+        <v>89512.96409610033</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.131527964625444e-06</v>
+        <v>1.374675147972592e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.491319444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>68185.88563861905</v>
+        <v>80969.97243502428</v>
       </c>
     </row>
     <row r="7">
@@ -3432,28 +3432,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>53.58238677889813</v>
+        <v>63.91161963745824</v>
       </c>
       <c r="AB7" t="n">
-        <v>73.3137854789327</v>
+        <v>87.44669756960005</v>
       </c>
       <c r="AC7" t="n">
-        <v>66.31682068938399</v>
+        <v>79.10090748578922</v>
       </c>
       <c r="AD7" t="n">
-        <v>53582.38677889813</v>
+        <v>63911.61963745824</v>
       </c>
       <c r="AE7" t="n">
-        <v>73313.7854789327</v>
+        <v>87446.69756960004</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.300800583548502e-06</v>
+        <v>1.403291524067965e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.44140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>66316.82068938398</v>
+        <v>79100.90748578923</v>
       </c>
     </row>
     <row r="8">
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>51.8814371098814</v>
+        <v>62.2106699684415</v>
       </c>
       <c r="AB8" t="n">
-        <v>70.98647110118188</v>
+        <v>85.11938319184921</v>
       </c>
       <c r="AC8" t="n">
-        <v>64.21162192943872</v>
+        <v>76.99570872584395</v>
       </c>
       <c r="AD8" t="n">
-        <v>51881.4371098814</v>
+        <v>62210.6699684415</v>
       </c>
       <c r="AE8" t="n">
-        <v>70986.47110118187</v>
+        <v>85119.38319184921</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.514048604298786e-06</v>
+        <v>1.439342160031468e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.380642361111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>64211.62192943872</v>
+        <v>76995.70872584396</v>
       </c>
     </row>
     <row r="9">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>51.54905998196381</v>
+        <v>61.8782928405239</v>
       </c>
       <c r="AB9" t="n">
-        <v>70.53169805132126</v>
+        <v>84.66461014198862</v>
       </c>
       <c r="AC9" t="n">
-        <v>63.80025178117868</v>
+        <v>76.58433857758392</v>
       </c>
       <c r="AD9" t="n">
-        <v>51549.05998196382</v>
+        <v>61878.29284052391</v>
       </c>
       <c r="AE9" t="n">
-        <v>70531.69805132126</v>
+        <v>84664.61014198861</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.530294294145788e-06</v>
+        <v>1.442088574505045e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.376302083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>63800.25178117868</v>
+        <v>76584.33857758393</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.47465652251509</v>
+        <v>108.6557922102351</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.0549282804255</v>
+        <v>148.6676484572204</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.5016158270323</v>
+        <v>134.4790167448588</v>
       </c>
       <c r="AD2" t="n">
-        <v>88474.65652251508</v>
+        <v>108655.7922102351</v>
       </c>
       <c r="AE2" t="n">
-        <v>121054.9282804255</v>
+        <v>148667.6484572204</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.529443641227742e-06</v>
+        <v>9.575840774262783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.791232638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>109501.6158270323</v>
+        <v>134479.0167448588</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.26117991674562</v>
+        <v>76.35697474989399</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.9790284301463</v>
+        <v>104.4749814847436</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.63225799753572</v>
+        <v>94.5040358834235</v>
       </c>
       <c r="AD3" t="n">
-        <v>56261.17991674562</v>
+        <v>76356.974749894</v>
       </c>
       <c r="AE3" t="n">
-        <v>76979.0284301463</v>
+        <v>104474.9814847436</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.731504560656051e-06</v>
+        <v>1.338935007245868e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.710503472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>69632.25799753572</v>
+        <v>94504.03588342349</v>
       </c>
     </row>
     <row r="4">
@@ -4153,28 +4153,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.21972808986254</v>
+        <v>63.39563678829415</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.81757986122227</v>
+        <v>86.74070707181737</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.86797223939874</v>
+        <v>78.46229573025082</v>
       </c>
       <c r="AD4" t="n">
-        <v>53219.72808986254</v>
+        <v>63395.63678829416</v>
       </c>
       <c r="AE4" t="n">
-        <v>72817.57986122227</v>
+        <v>86740.70707181736</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.237807615160338e-06</v>
+        <v>1.426616114931043e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.543402777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>65867.97223939873</v>
+        <v>78462.29573025081</v>
       </c>
     </row>
     <row r="5">
@@ -4259,28 +4259,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.07224059378553</v>
+        <v>61.07755709162494</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.8792927286293</v>
+        <v>83.56900816437752</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.21011110682761</v>
+        <v>75.59329931502864</v>
       </c>
       <c r="AD5" t="n">
-        <v>51072.24059378553</v>
+        <v>61077.55709162494</v>
       </c>
       <c r="AE5" t="n">
-        <v>69879.2927286293</v>
+        <v>83569.00816437752</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.567841483386423e-06</v>
+        <v>1.483771083446922e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.445746527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>63210.11110682761</v>
+        <v>75593.29931502865</v>
       </c>
     </row>
     <row r="6">
@@ -4365,28 +4365,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.29146243114933</v>
+        <v>59.29677892898874</v>
       </c>
       <c r="AB6" t="n">
-        <v>67.4427534841238</v>
+        <v>81.13246891987201</v>
       </c>
       <c r="AC6" t="n">
-        <v>61.00611174811262</v>
+        <v>73.38929995631366</v>
       </c>
       <c r="AD6" t="n">
-        <v>49291.46243114932</v>
+        <v>59296.77892898874</v>
       </c>
       <c r="AE6" t="n">
-        <v>67442.75348412379</v>
+        <v>81132.46891987202</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.784773314827978e-06</v>
+        <v>1.521339142939655e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.384982638888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>61006.11174811262</v>
+        <v>73389.29995631367</v>
       </c>
     </row>
     <row r="7">
@@ -4471,28 +4471,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>48.41118740712194</v>
+        <v>58.41650390496135</v>
       </c>
       <c r="AB7" t="n">
-        <v>66.23832236125689</v>
+        <v>79.92803779700512</v>
       </c>
       <c r="AC7" t="n">
-        <v>59.91662984118206</v>
+        <v>72.29981804938312</v>
       </c>
       <c r="AD7" t="n">
-        <v>48411.18740712194</v>
+        <v>58416.50390496136</v>
       </c>
       <c r="AE7" t="n">
-        <v>66238.3223612569</v>
+        <v>79928.03779700512</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.937378966509923e-06</v>
+        <v>1.547767252467044e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.345920138888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>59916.62984118206</v>
+        <v>72299.81804938312</v>
       </c>
     </row>
   </sheetData>
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.59905033979966</v>
+        <v>63.74444071065853</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.39063236301698</v>
+        <v>87.21795598653905</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.43615797610612</v>
+        <v>78.89399667837469</v>
       </c>
       <c r="AD2" t="n">
-        <v>45599.05033979966</v>
+        <v>63744.44071065853</v>
       </c>
       <c r="AE2" t="n">
-        <v>62390.63236301698</v>
+        <v>87217.95598653905</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.73640961125273e-06</v>
+        <v>1.653116697002425e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.677951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>56436.15797610611</v>
+        <v>78893.99667837469</v>
       </c>
     </row>
     <row r="3">
@@ -4874,28 +4874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.21397738125096</v>
+        <v>50.24409164794896</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.39078208520916</v>
+        <v>68.74618280558332</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.0089249880673</v>
+        <v>62.185143604507</v>
       </c>
       <c r="AD3" t="n">
-        <v>41213.97738125097</v>
+        <v>50244.09164794895</v>
       </c>
       <c r="AE3" t="n">
-        <v>56390.78208520916</v>
+        <v>68746.18280558332</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.829578986006762e-06</v>
+        <v>1.859967866587005e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.378472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>51008.9249880673</v>
+        <v>62185.143604507</v>
       </c>
     </row>
   </sheetData>
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.52557156215201</v>
+        <v>74.02229184967538</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.28673367861292</v>
+        <v>101.2805653417259</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.86077172755628</v>
+        <v>91.61449033370316</v>
       </c>
       <c r="AD2" t="n">
-        <v>64525.57156215201</v>
+        <v>74022.29184967538</v>
       </c>
       <c r="AE2" t="n">
-        <v>88286.73367861292</v>
+        <v>101280.5653417259</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.439277749176148e-06</v>
+        <v>1.355274843548986e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>79860.77172755629</v>
+        <v>91614.49033370316</v>
       </c>
     </row>
     <row r="3">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.26955799751147</v>
+        <v>55.68093743046322</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.30805052100797</v>
+        <v>76.1851150619233</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.26601903270321</v>
+        <v>68.91411460691126</v>
       </c>
       <c r="AD3" t="n">
-        <v>46269.55799751147</v>
+        <v>55680.93743046322</v>
       </c>
       <c r="AE3" t="n">
-        <v>63308.05052100797</v>
+        <v>76185.11506192329</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.048756705610336e-06</v>
+        <v>1.648486955587455e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.471788194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>57266.0190327032</v>
+        <v>68914.11460691126</v>
       </c>
     </row>
     <row r="4">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.89990260689729</v>
+        <v>53.31128203984905</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.06578347375364</v>
+        <v>72.94284801466897</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.33318940188742</v>
+        <v>65.98128497609545</v>
       </c>
       <c r="AD4" t="n">
-        <v>43899.90260689729</v>
+        <v>53311.28203984904</v>
       </c>
       <c r="AE4" t="n">
-        <v>60065.78347375364</v>
+        <v>72942.84801466897</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.511804110693359e-06</v>
+        <v>1.732844136571746e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.352430555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>54333.18940188742</v>
+        <v>65981.28497609546</v>
       </c>
     </row>
     <row r="5">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>43.97326768929685</v>
+        <v>53.3846471222486</v>
       </c>
       <c r="AB5" t="n">
-        <v>60.16616481613167</v>
+        <v>73.043229357047</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.42399048983501</v>
+        <v>66.07208606404306</v>
       </c>
       <c r="AD5" t="n">
-        <v>43973.26768929684</v>
+        <v>53384.6471222486</v>
       </c>
       <c r="AE5" t="n">
-        <v>60166.16481613167</v>
+        <v>73043.22935704699</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.518402871309102e-06</v>
+        <v>1.734046287447496e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.350260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>54423.99048983501</v>
+        <v>66072.08606404306</v>
       </c>
     </row>
   </sheetData>
@@ -5786,28 +5786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.38744377382089</v>
+        <v>48.10484239487056</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.89163822255981</v>
+        <v>65.81916760050667</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.74829590809131</v>
+        <v>59.5374786225103</v>
       </c>
       <c r="AD2" t="n">
-        <v>39387.44377382089</v>
+        <v>48104.84239487056</v>
       </c>
       <c r="AE2" t="n">
-        <v>53891.63822255981</v>
+        <v>65819.16760050667</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.897891712805033e-06</v>
+        <v>1.939667865175906e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.454427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>48748.29590809131</v>
+        <v>59537.4786225103</v>
       </c>
     </row>
     <row r="3">
@@ -5892,28 +5892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.55061415717291</v>
+        <v>48.2680127782226</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.11489513963021</v>
+        <v>66.04242451757808</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.95024549834024</v>
+        <v>59.73942821275953</v>
       </c>
       <c r="AD3" t="n">
-        <v>39550.61415717291</v>
+        <v>48268.0127782226</v>
       </c>
       <c r="AE3" t="n">
-        <v>54114.89513963021</v>
+        <v>66042.42451757808</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.843715570166018e-06</v>
+        <v>1.929051086776508e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.467447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>48950.24549834024</v>
+        <v>59739.42821275954</v>
       </c>
     </row>
   </sheetData>
@@ -6189,28 +6189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.29751534274443</v>
+        <v>113.6489283227763</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.6537764877746</v>
+        <v>155.4994775680145</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.4706792230157</v>
+        <v>140.6588256738533</v>
       </c>
       <c r="AD2" t="n">
-        <v>93297.51534274443</v>
+        <v>113648.9283227763</v>
       </c>
       <c r="AE2" t="n">
-        <v>127653.7764877746</v>
+        <v>155499.4775680145</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.276467521634937e-06</v>
+        <v>9.078063211845314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.936631944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>115470.6792230157</v>
+        <v>140658.8256738533</v>
       </c>
     </row>
     <row r="3">
@@ -6295,28 +6295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.32322705890224</v>
+        <v>78.58929918436252</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.80041230114307</v>
+        <v>107.5293462591854</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.18437295172261</v>
+        <v>97.2668963706214</v>
       </c>
       <c r="AD3" t="n">
-        <v>58323.22705890224</v>
+        <v>78589.29918436252</v>
       </c>
       <c r="AE3" t="n">
-        <v>79800.41230114306</v>
+        <v>107529.3462591854</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.490525938740383e-06</v>
+        <v>1.288730911031595e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.7734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>72184.3729517226</v>
+        <v>97266.8963706214</v>
       </c>
     </row>
     <row r="4">
@@ -6401,28 +6401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.77678130225289</v>
+        <v>65.03782864684045</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.94800875875333</v>
+        <v>88.98762642107091</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.79507599302586</v>
+        <v>80.49477225038345</v>
       </c>
       <c r="AD4" t="n">
-        <v>54776.78130225289</v>
+        <v>65037.82864684045</v>
       </c>
       <c r="AE4" t="n">
-        <v>74948.00875875333</v>
+        <v>88987.62642107092</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.051817649341152e-06</v>
+        <v>1.385300095021184e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.580295138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>67795.07599302586</v>
+        <v>80494.77225038345</v>
       </c>
     </row>
     <row r="5">
@@ -6507,28 +6507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.0990154182632</v>
+        <v>63.36006276285078</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.65241545847292</v>
+        <v>86.6920331207905</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.71857089543803</v>
+        <v>78.41826715279562</v>
       </c>
       <c r="AD5" t="n">
-        <v>53099.0154182632</v>
+        <v>63360.06276285078</v>
       </c>
       <c r="AE5" t="n">
-        <v>72652.41545847291</v>
+        <v>86692.0331207905</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.299249278246843e-06</v>
+        <v>1.427870241783307e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.502170138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>65718.57089543804</v>
+        <v>78418.26715279563</v>
       </c>
     </row>
     <row r="6">
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>50.30036182010302</v>
+        <v>60.39081696409838</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.82317413758925</v>
+        <v>82.62938002505997</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.25478699184433</v>
+        <v>74.7433479665509</v>
       </c>
       <c r="AD6" t="n">
-        <v>50300.36182010302</v>
+        <v>60390.81696409838</v>
       </c>
       <c r="AE6" t="n">
-        <v>68823.17413758925</v>
+        <v>82629.38002505997</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.726344028025258e-06</v>
+        <v>1.501351090855876e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.380642361111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>62254.78699184433</v>
+        <v>74743.34796655089</v>
       </c>
     </row>
     <row r="7">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.45851107996286</v>
+        <v>59.54896622395822</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.67131681509659</v>
+        <v>81.47752270256733</v>
       </c>
       <c r="AC7" t="n">
-        <v>61.21286131556811</v>
+        <v>73.70142229027466</v>
       </c>
       <c r="AD7" t="n">
-        <v>49458.51107996286</v>
+        <v>59548.96622395822</v>
       </c>
       <c r="AE7" t="n">
-        <v>67671.31681509659</v>
+        <v>81477.52270256732</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.7904752432542e-06</v>
+        <v>1.512384745916078e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.36328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>61212.86131556811</v>
+        <v>73701.42229027467</v>
       </c>
     </row>
     <row r="8">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>49.5972756421995</v>
+        <v>59.68773078619486</v>
       </c>
       <c r="AB8" t="n">
-        <v>67.8611806110091</v>
+        <v>81.66738649847983</v>
       </c>
       <c r="AC8" t="n">
-        <v>61.3846047772743</v>
+        <v>73.87316575198085</v>
       </c>
       <c r="AD8" t="n">
-        <v>49597.2756421995</v>
+        <v>59687.73078619486</v>
       </c>
       <c r="AE8" t="n">
-        <v>67861.1806110091</v>
+        <v>81667.38649847983</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.771235878685517e-06</v>
+        <v>1.509074649398018e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.367621527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>61384.6047772743</v>
+        <v>73873.16575198085</v>
       </c>
     </row>
   </sheetData>
@@ -7122,28 +7122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.06980644699519</v>
+        <v>46.60203058389861</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.08878870194934</v>
+        <v>63.76295418135796</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.11750781540736</v>
+        <v>57.67750732617082</v>
       </c>
       <c r="AD2" t="n">
-        <v>38069.80644699519</v>
+        <v>46602.03058389861</v>
       </c>
       <c r="AE2" t="n">
-        <v>52088.78870194934</v>
+        <v>63762.95418135796</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.939854290525721e-06</v>
+        <v>1.992603204545536e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>47117.50781540736</v>
+        <v>57677.50732617082</v>
       </c>
     </row>
   </sheetData>
@@ -7419,28 +7419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.59571060304883</v>
+        <v>95.05362189108627</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4333862944267</v>
+        <v>130.0565589411678</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.56184907618209</v>
+        <v>117.6441434913842</v>
       </c>
       <c r="AD2" t="n">
-        <v>75595.71060304884</v>
+        <v>95053.62189108627</v>
       </c>
       <c r="AE2" t="n">
-        <v>103433.3862944267</v>
+        <v>130056.5589411678</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.387961633157075e-06</v>
+        <v>1.131355472194664e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.381076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>93561.84907618209</v>
+        <v>117644.1434913842</v>
       </c>
     </row>
     <row r="3">
@@ -7525,28 +7525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.54535677486203</v>
+        <v>73.08851940892004</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.26311939376204</v>
+        <v>100.0029366931523</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.2709901042717</v>
+        <v>90.45879677018601</v>
       </c>
       <c r="AD3" t="n">
-        <v>53545.35677486203</v>
+        <v>73088.51940892004</v>
       </c>
       <c r="AE3" t="n">
-        <v>73263.11939376204</v>
+        <v>100002.9366931524</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.978085619576206e-06</v>
+        <v>1.412978245907876e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.706163194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>66270.99010427171</v>
+        <v>90458.79677018602</v>
       </c>
     </row>
     <row r="4">
@@ -7631,28 +7631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.09787590352354</v>
+        <v>57.82687630181777</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.80963573970577</v>
+        <v>79.1212832978505</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.52885646912619</v>
+        <v>71.57005906734051</v>
       </c>
       <c r="AD4" t="n">
-        <v>48097.87590352354</v>
+        <v>57826.87630181777</v>
       </c>
       <c r="AE4" t="n">
-        <v>65809.63573970577</v>
+        <v>79121.2832978505</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.94326570245243e-06</v>
+        <v>1.583918810539233e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.415364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>59528.85646912619</v>
+        <v>71570.05906734051</v>
       </c>
     </row>
     <row r="5">
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.39815745649165</v>
+        <v>56.12715785478589</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.48400597419229</v>
+        <v>76.79565353233701</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.4251815443907</v>
+        <v>69.46638414260502</v>
       </c>
       <c r="AD5" t="n">
-        <v>46398.15745649165</v>
+        <v>56127.1578547859</v>
       </c>
       <c r="AE5" t="n">
-        <v>63484.00597419229</v>
+        <v>76795.65353233702</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.192944723788283e-06</v>
+        <v>1.628138820505217e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.348090277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>57425.1815443907</v>
+        <v>69466.38414260502</v>
       </c>
     </row>
     <row r="6">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.37843702603755</v>
+        <v>56.10743742433178</v>
       </c>
       <c r="AB6" t="n">
-        <v>63.45702361124101</v>
+        <v>76.76867116938575</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.4007743402895</v>
+        <v>69.44197693850383</v>
       </c>
       <c r="AD6" t="n">
-        <v>46378.43702603755</v>
+        <v>56107.43742433179</v>
       </c>
       <c r="AE6" t="n">
-        <v>63457.02361124101</v>
+        <v>76768.67116938575</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.203791680075891e-06</v>
+        <v>1.630059897064121e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.345920138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>57400.7743402895</v>
+        <v>69441.97693850382</v>
       </c>
     </row>
   </sheetData>
@@ -8140,28 +8140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.46624635015716</v>
+        <v>103.4706297378082</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.2022005271463</v>
+        <v>141.5730804092258</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.30290279266</v>
+        <v>128.0615443140738</v>
       </c>
       <c r="AD2" t="n">
-        <v>83466.24635015716</v>
+        <v>103470.6297378082</v>
       </c>
       <c r="AE2" t="n">
-        <v>114202.2005271463</v>
+        <v>141573.0804092258</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.829915355603304e-06</v>
+        <v>1.016686331660184e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>103302.90279266</v>
+        <v>128061.5443140738</v>
       </c>
     </row>
     <row r="3">
@@ -8246,28 +8246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.5290123458616</v>
+        <v>74.44805487894098</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.60900034182406</v>
+        <v>101.863113101706</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.48842206360686</v>
+        <v>92.14144055308184</v>
       </c>
       <c r="AD3" t="n">
-        <v>54529.01234586159</v>
+        <v>74448.05487894098</v>
       </c>
       <c r="AE3" t="n">
-        <v>74609.00034182405</v>
+        <v>101863.113101706</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.942518647178376e-06</v>
+        <v>1.385105898627022e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.664930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>67488.42206360686</v>
+        <v>92141.44055308183</v>
       </c>
     </row>
     <row r="4">
@@ -8352,28 +8352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.34778047783124</v>
+        <v>61.26472082563616</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.25629855394219</v>
+        <v>83.82509384233272</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.55113602530376</v>
+        <v>75.82494453529839</v>
       </c>
       <c r="AD4" t="n">
-        <v>51347.78047783123</v>
+        <v>61264.72082563616</v>
       </c>
       <c r="AE4" t="n">
-        <v>70256.29855394219</v>
+        <v>83825.09384233272</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.490877022210372e-06</v>
+        <v>1.4807348110109e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.491319444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>63551.13602530376</v>
+        <v>75824.94453529839</v>
       </c>
     </row>
     <row r="5">
@@ -8458,28 +8458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.50768858936947</v>
+        <v>59.42462893717439</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.73860365302529</v>
+        <v>81.30739894141583</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.27372639212257</v>
+        <v>73.54753490211722</v>
       </c>
       <c r="AD5" t="n">
-        <v>49507.68858936947</v>
+        <v>59424.62893717439</v>
       </c>
       <c r="AE5" t="n">
-        <v>67738.60365302529</v>
+        <v>81307.39894141583</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.772661464572118e-06</v>
+        <v>1.529875557239459e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.411024305555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>61273.72639212257</v>
+        <v>73547.53490211722</v>
       </c>
     </row>
     <row r="6">
@@ -8564,28 +8564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>47.83161385924338</v>
+        <v>57.74855420704831</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.44532426406948</v>
+        <v>79.01411955246</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.19931436941013</v>
+        <v>71.47312287940478</v>
       </c>
       <c r="AD6" t="n">
-        <v>47831.61385924338</v>
+        <v>57748.55420704831</v>
       </c>
       <c r="AE6" t="n">
-        <v>65445.32426406948</v>
+        <v>79014.11955246</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.011349462807951e-06</v>
+        <v>1.571500659927178e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.348090277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>59199.31436941013</v>
+        <v>71473.12287940478</v>
       </c>
     </row>
     <row r="7">
@@ -8670,28 +8670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>48.03573923405046</v>
+        <v>57.95267958185539</v>
       </c>
       <c r="AB7" t="n">
-        <v>65.72461760725636</v>
+        <v>79.2934128956469</v>
       </c>
       <c r="AC7" t="n">
-        <v>59.45195234791402</v>
+        <v>71.72576085790867</v>
       </c>
       <c r="AD7" t="n">
-        <v>48035.73923405046</v>
+        <v>57952.67958185539</v>
       </c>
       <c r="AE7" t="n">
-        <v>65724.61760725637</v>
+        <v>79293.41289564689</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.964645397793669e-06</v>
+        <v>1.563355878804867e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.361111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>59451.95234791403</v>
+        <v>71725.76085790867</v>
       </c>
     </row>
   </sheetData>
@@ -8967,28 +8967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.5319878904806</v>
+        <v>135.1215871921584</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.7077186263855</v>
+        <v>184.8793167399402</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.7517539013907</v>
+        <v>167.234694230083</v>
       </c>
       <c r="AD2" t="n">
-        <v>114531.9878904806</v>
+        <v>135121.5871921584</v>
       </c>
       <c r="AE2" t="n">
-        <v>156707.7186263855</v>
+        <v>184879.3167399402</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.800014993499892e-06</v>
+        <v>8.159707361338035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.255642361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>141751.7539013907</v>
+        <v>167234.694230083</v>
       </c>
     </row>
     <row r="3">
@@ -9073,28 +9073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.24341458257683</v>
+        <v>83.83292437570366</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.53242993438526</v>
+        <v>114.7039055783915</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.27389627049639</v>
+        <v>103.756725817962</v>
       </c>
       <c r="AD3" t="n">
-        <v>63243.41458257684</v>
+        <v>83832.92437570366</v>
       </c>
       <c r="AE3" t="n">
-        <v>86532.42993438526</v>
+        <v>114703.9055783915</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.968270692875303e-06</v>
+        <v>1.184559834614024e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.931857638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>78273.89627049639</v>
+        <v>103756.7258179621</v>
       </c>
     </row>
     <row r="4">
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.87924050133271</v>
+        <v>78.46875029445951</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.19293030577222</v>
+        <v>107.3644059497785</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.63486818538341</v>
+        <v>97.11769773284911</v>
       </c>
       <c r="AD4" t="n">
-        <v>57879.24050133271</v>
+        <v>78468.75029445952</v>
       </c>
       <c r="AE4" t="n">
-        <v>79192.93030577223</v>
+        <v>107364.4059497785</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.700841653591401e-06</v>
+        <v>1.309092042720715e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.651909722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>71634.86818538341</v>
+        <v>97117.6977328491</v>
       </c>
     </row>
     <row r="5">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.64564528444706</v>
+        <v>64.8978192622757</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.7685826738787</v>
+        <v>88.7960594043314</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.63277408186551</v>
+        <v>80.32148812085551</v>
       </c>
       <c r="AD5" t="n">
-        <v>54645.64528444706</v>
+        <v>64897.8192622757</v>
       </c>
       <c r="AE5" t="n">
-        <v>74768.5826738787</v>
+        <v>88796.0594043314</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.181285481245008e-06</v>
+        <v>1.390764309214118e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.495659722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>67632.7740818655</v>
+        <v>80321.4881208555</v>
       </c>
     </row>
     <row r="6">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>53.55199842650592</v>
+        <v>63.80417240433456</v>
       </c>
       <c r="AB6" t="n">
-        <v>73.2722067945502</v>
+        <v>87.29968352500291</v>
       </c>
       <c r="AC6" t="n">
-        <v>66.27921021628289</v>
+        <v>78.96792425527289</v>
       </c>
       <c r="AD6" t="n">
-        <v>53551.99842650592</v>
+        <v>63804.17240433456</v>
       </c>
       <c r="AE6" t="n">
-        <v>73272.20679455021</v>
+        <v>87299.68352500291</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.31671323207626e-06</v>
+        <v>1.41378612928934e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.456597222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>66279.2102162829</v>
+        <v>78967.9242552729</v>
       </c>
     </row>
     <row r="7">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>52.09075024207731</v>
+        <v>62.34292421990595</v>
       </c>
       <c r="AB7" t="n">
-        <v>71.27286256289584</v>
+        <v>85.30033929334856</v>
       </c>
       <c r="AC7" t="n">
-        <v>64.47068059199975</v>
+        <v>77.15939463098975</v>
       </c>
       <c r="AD7" t="n">
-        <v>52090.75024207731</v>
+        <v>62342.92421990595</v>
       </c>
       <c r="AE7" t="n">
-        <v>71272.86256289584</v>
+        <v>85300.33929334856</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.480280592010044e-06</v>
+        <v>1.441591496412853e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.408854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>64470.68059199976</v>
+        <v>77159.39463098976</v>
       </c>
     </row>
     <row r="8">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>50.77420436759478</v>
+        <v>61.02637834542342</v>
       </c>
       <c r="AB8" t="n">
-        <v>69.47150641552498</v>
+        <v>83.49898314597769</v>
       </c>
       <c r="AC8" t="n">
-        <v>62.84124334711417</v>
+        <v>75.52995738610416</v>
       </c>
       <c r="AD8" t="n">
-        <v>50774.20436759478</v>
+        <v>61026.37834542342</v>
       </c>
       <c r="AE8" t="n">
-        <v>69471.50641552499</v>
+        <v>83498.98314597769</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.628695854734773e-06</v>
+        <v>1.46682110743344e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.367621527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>62841.24334711416</v>
+        <v>75529.95738610416</v>
       </c>
     </row>
     <row r="9">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>50.96867829617268</v>
+        <v>61.22085227400133</v>
       </c>
       <c r="AB9" t="n">
-        <v>69.73759422418937</v>
+        <v>83.76507095464207</v>
       </c>
       <c r="AC9" t="n">
-        <v>63.08193610877628</v>
+        <v>75.77065014776628</v>
       </c>
       <c r="AD9" t="n">
-        <v>50968.67829617269</v>
+        <v>61220.85227400133</v>
       </c>
       <c r="AE9" t="n">
-        <v>69737.59422418936</v>
+        <v>83765.07095464207</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.605261865883498e-06</v>
+        <v>1.462837484640716e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.374131944444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>63081.93610877628</v>
+        <v>75770.65014776628</v>
       </c>
     </row>
   </sheetData>
@@ -10006,28 +10006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.9661909513963</v>
+        <v>77.57442682110121</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.99434091638931</v>
+        <v>106.1407531187632</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.11909153772903</v>
+        <v>96.01082861061798</v>
       </c>
       <c r="AD2" t="n">
-        <v>67966.1909513963</v>
+        <v>77574.42682110121</v>
       </c>
       <c r="AE2" t="n">
-        <v>92994.34091638931</v>
+        <v>106140.7531187632</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.071271085601357e-06</v>
+        <v>1.275117511252212e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>84119.09153772904</v>
+        <v>96010.82861061797</v>
       </c>
     </row>
     <row r="3">
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.3966626580029</v>
+        <v>58.09014987372838</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.2184489587255</v>
+        <v>79.48150581374865</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.89865312829577</v>
+        <v>71.89590245189694</v>
       </c>
       <c r="AD3" t="n">
-        <v>48396.6626580029</v>
+        <v>58090.14987372838</v>
       </c>
       <c r="AE3" t="n">
-        <v>66218.44895872551</v>
+        <v>79481.50581374865</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.724750358050906e-06</v>
+        <v>1.573278951998856e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.532552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>59898.65312829577</v>
+        <v>71895.90245189694</v>
       </c>
     </row>
     <row r="4">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.08804672319471</v>
+        <v>54.61094173832799</v>
       </c>
       <c r="AB4" t="n">
-        <v>61.69145467088993</v>
+        <v>74.72109975106622</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.80370882161338</v>
+        <v>67.58982286256351</v>
       </c>
       <c r="AD4" t="n">
-        <v>45088.04672319471</v>
+        <v>54610.94173832799</v>
       </c>
       <c r="AE4" t="n">
-        <v>61691.45467088993</v>
+        <v>74721.09975106621</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.353968455571732e-06</v>
+        <v>1.6867418647953e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.361111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>55803.70882161339</v>
+        <v>67589.82286256351</v>
       </c>
     </row>
     <row r="5">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.79094111520492</v>
+        <v>54.3138361303382</v>
       </c>
       <c r="AB5" t="n">
-        <v>61.28494167066415</v>
+        <v>74.31458675084043</v>
       </c>
       <c r="AC5" t="n">
-        <v>55.43599285158445</v>
+        <v>67.22210689253457</v>
       </c>
       <c r="AD5" t="n">
-        <v>44790.94111520491</v>
+        <v>54313.8361303382</v>
       </c>
       <c r="AE5" t="n">
-        <v>61284.94167066415</v>
+        <v>74314.58675084043</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.422999178891978e-06</v>
+        <v>1.69918973775258e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>55435.99285158445</v>
+        <v>67222.10689253458</v>
       </c>
     </row>
   </sheetData>
@@ -10621,28 +10621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.63624712481543</v>
+        <v>67.05434726919604</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.54625899593897</v>
+        <v>91.74671616269941</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.19517743564194</v>
+        <v>82.99053833947858</v>
       </c>
       <c r="AD2" t="n">
-        <v>48636.24712481543</v>
+        <v>67054.34726919605</v>
       </c>
       <c r="AE2" t="n">
-        <v>66546.25899593897</v>
+        <v>91746.71616269942</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.268683706218286e-06</v>
+        <v>1.542672077110472e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.784288194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>60195.17743564195</v>
+        <v>82990.53833947857</v>
       </c>
     </row>
     <row r="3">
@@ -10727,28 +10727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.27254518965951</v>
+        <v>51.43901434311505</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.83916126154775</v>
+        <v>70.38112875337754</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.31907288852983</v>
+        <v>63.66405260570532</v>
       </c>
       <c r="AD3" t="n">
-        <v>42272.54518965951</v>
+        <v>51439.01434311506</v>
       </c>
       <c r="AE3" t="n">
-        <v>57839.16126154775</v>
+        <v>70381.12875337753</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.699614399413827e-06</v>
+        <v>1.80963800580031e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.371961805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>52319.07288852983</v>
+        <v>63664.05260570531</v>
       </c>
     </row>
     <row r="4">
@@ -10833,28 +10833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.09837562168649</v>
+        <v>51.26484477514551</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.6008547746639</v>
+        <v>70.14282226666266</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.10351003839176</v>
+        <v>63.44848975561718</v>
       </c>
       <c r="AD4" t="n">
-        <v>42098.37562168649</v>
+        <v>51264.8447751455</v>
       </c>
       <c r="AE4" t="n">
-        <v>57600.8547746639</v>
+        <v>70142.82226666267</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.761127874217666e-06</v>
+        <v>1.821114453965155e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.358940972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>52103.51003839176</v>
+        <v>63448.48975561718</v>
       </c>
     </row>
   </sheetData>
@@ -19135,28 +19135,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.15269206260989</v>
+        <v>51.20485556367756</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.67517292540719</v>
+        <v>70.06074238099504</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.1707353691345</v>
+        <v>63.37424345903782</v>
       </c>
       <c r="AD2" t="n">
-        <v>42152.69206260989</v>
+        <v>51204.85556367756</v>
       </c>
       <c r="AE2" t="n">
-        <v>57675.17292540719</v>
+        <v>70060.74238099504</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.38869899554948e-06</v>
+        <v>1.805481633527254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.536892361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>52170.73536913451</v>
+        <v>63374.24345903782</v>
       </c>
     </row>
     <row r="3">
@@ -19241,28 +19241,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.40869128747407</v>
+        <v>49.29026258794928</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.28895412499386</v>
+        <v>67.44111180572412</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.0122539419464</v>
+        <v>61.00462674919532</v>
       </c>
       <c r="AD3" t="n">
-        <v>40408.69128747407</v>
+        <v>49290.26258794928</v>
       </c>
       <c r="AE3" t="n">
-        <v>55288.95412499386</v>
+        <v>67441.11180572413</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.863970614329514e-06</v>
+        <v>1.896878128297284e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.413194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>50012.2539419464</v>
+        <v>61004.62674919532</v>
       </c>
     </row>
   </sheetData>
@@ -19538,28 +19538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.97927238511992</v>
+        <v>45.46667998979673</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.59667188753153</v>
+        <v>62.20951741037537</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.76779653555403</v>
+        <v>56.27232838034814</v>
       </c>
       <c r="AD2" t="n">
-        <v>36979.27238511992</v>
+        <v>45466.67998979673</v>
       </c>
       <c r="AE2" t="n">
-        <v>50596.67188753153</v>
+        <v>62209.51741037537</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.722615509830586e-06</v>
+        <v>2.005386015244744e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.628038194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>45767.79653555403</v>
+        <v>56272.32838034813</v>
       </c>
     </row>
   </sheetData>
@@ -19835,28 +19835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.21450538932893</v>
+        <v>98.86436512911125</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.3847809709711</v>
+        <v>135.2705859575574</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.04068959412473</v>
+        <v>122.3605510872641</v>
       </c>
       <c r="AD2" t="n">
-        <v>79214.50538932893</v>
+        <v>98864.36512911125</v>
       </c>
       <c r="AE2" t="n">
-        <v>108384.7809709711</v>
+        <v>135270.5859575574</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.117959135469179e-06</v>
+        <v>1.074901286113946e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.493923611111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>98040.68959412473</v>
+        <v>122360.5510872641</v>
       </c>
     </row>
     <row r="3">
@@ -19941,28 +19941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.56241806047684</v>
+        <v>73.29752914627973</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.28646339743101</v>
+        <v>100.2889130366666</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.29210618899404</v>
+        <v>90.71747993284563</v>
       </c>
       <c r="AD3" t="n">
-        <v>53562.41806047683</v>
+        <v>73297.52914627973</v>
       </c>
       <c r="AE3" t="n">
-        <v>73286.46339743101</v>
+        <v>100288.9130366666</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.037859520253441e-06</v>
+        <v>1.412220210140561e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.658420138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>66292.10618899405</v>
+        <v>90717.47993284563</v>
       </c>
     </row>
     <row r="4">
@@ -20047,28 +20047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.83350527478428</v>
+        <v>59.65847989895096</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.1844004160273</v>
+        <v>81.62736414409466</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.67697693774352</v>
+        <v>73.83696307492646</v>
       </c>
       <c r="AD4" t="n">
-        <v>49833.50527478428</v>
+        <v>59658.47989895096</v>
       </c>
       <c r="AE4" t="n">
-        <v>68184.4004160273</v>
+        <v>81627.36414409465</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.698243803201906e-06</v>
+        <v>1.528247123585498e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.456597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>61676.97693774352</v>
+        <v>73836.96307492646</v>
       </c>
     </row>
     <row r="5">
@@ -20153,28 +20153,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.8907389973173</v>
+        <v>57.71571362148397</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.52622188639917</v>
+        <v>78.96918561446653</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.27249123620524</v>
+        <v>71.43247737338821</v>
       </c>
       <c r="AD5" t="n">
-        <v>47890.7389973173</v>
+        <v>57715.71362148397</v>
       </c>
       <c r="AE5" t="n">
-        <v>65526.22188639917</v>
+        <v>78969.18561446652</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.980280872448015e-06</v>
+        <v>1.577799924078534e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.380642361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>59272.49123620524</v>
+        <v>71432.4773733882</v>
       </c>
     </row>
     <row r="6">
@@ -20259,28 +20259,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.92047242293187</v>
+        <v>56.74544704709854</v>
       </c>
       <c r="AB6" t="n">
-        <v>64.19866035418546</v>
+        <v>77.64162408225282</v>
       </c>
       <c r="AC6" t="n">
-        <v>58.07163031338128</v>
+        <v>70.23161645056423</v>
       </c>
       <c r="AD6" t="n">
-        <v>46920.47242293187</v>
+        <v>56745.44704709854</v>
       </c>
       <c r="AE6" t="n">
-        <v>64198.66035418546</v>
+        <v>77641.62408225282</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.157341853769419e-06</v>
+        <v>1.608908840030516e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.332899305555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>58071.63031338128</v>
+        <v>70231.61645056424</v>
       </c>
     </row>
   </sheetData>
@@ -20556,28 +20556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.2968340703562</v>
+        <v>129.7273962691664</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.5447502110086</v>
+        <v>177.4987467441981</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.2724091382858</v>
+        <v>160.5585154760371</v>
       </c>
       <c r="AD2" t="n">
-        <v>109296.8340703562</v>
+        <v>129727.3962691664</v>
       </c>
       <c r="AE2" t="n">
-        <v>149544.7502110086</v>
+        <v>177498.7467441981</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.01350398152308e-06</v>
+        <v>8.572533091510809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.108072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>135272.4091382858</v>
+        <v>160558.5154760371</v>
       </c>
     </row>
     <row r="3">
@@ -20662,28 +20662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.09961404345762</v>
+        <v>81.53008673371684</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.59918745895899</v>
+        <v>111.5530615226001</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.6205983400922</v>
+        <v>100.906593896617</v>
       </c>
       <c r="AD3" t="n">
-        <v>61099.61404345762</v>
+        <v>81530.08673371685</v>
       </c>
       <c r="AE3" t="n">
-        <v>83599.187458959</v>
+        <v>111553.0615226001</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.179677046828717e-06</v>
+        <v>1.227644762966793e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.868923611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>75620.5983400922</v>
+        <v>100906.593896617</v>
       </c>
     </row>
     <row r="4">
@@ -20768,28 +20768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.34305862167262</v>
+        <v>66.68630624865966</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.09105848646088</v>
+        <v>91.2431462015779</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.73359606251086</v>
+        <v>82.53502838868145</v>
       </c>
       <c r="AD4" t="n">
-        <v>56343.05862167262</v>
+        <v>66686.30624865966</v>
       </c>
       <c r="AE4" t="n">
-        <v>77091.05848646088</v>
+        <v>91243.1462015779</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.870419314422344e-06</v>
+        <v>1.345753992928005e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>69733.59606251086</v>
+        <v>82535.02838868146</v>
       </c>
     </row>
     <row r="5">
@@ -20874,28 +20874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.18194095447222</v>
+        <v>63.35459638086706</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.76587783553049</v>
+        <v>86.68455377580062</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.82120458247472</v>
+        <v>78.41150162599426</v>
       </c>
       <c r="AD5" t="n">
-        <v>53181.94095447221</v>
+        <v>63354.59638086706</v>
       </c>
       <c r="AE5" t="n">
-        <v>72765.87783553048</v>
+        <v>86684.55377580062</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.352012528880051e-06</v>
+        <v>1.428101065610124e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.465277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>65821.20458247472</v>
+        <v>78411.50162599426</v>
       </c>
     </row>
     <row r="6">
@@ -20980,28 +20980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>51.94810679162438</v>
+        <v>62.12076221801922</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.07769150100135</v>
+        <v>84.99636744127149</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.29413638232811</v>
+        <v>76.88443342584765</v>
       </c>
       <c r="AD6" t="n">
-        <v>51948.10679162438</v>
+        <v>62120.76221801923</v>
       </c>
       <c r="AE6" t="n">
-        <v>71077.69150100135</v>
+        <v>84996.36744127149</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.509064109161333e-06</v>
+        <v>1.454955135617791e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.419704861111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>64294.1363823281</v>
+        <v>76884.43342584764</v>
       </c>
     </row>
     <row r="7">
@@ -21086,28 +21086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>50.6221158482739</v>
+        <v>60.79477127466874</v>
       </c>
       <c r="AB7" t="n">
-        <v>69.26341219371832</v>
+        <v>83.18208813398847</v>
       </c>
       <c r="AC7" t="n">
-        <v>62.6530093457746</v>
+        <v>75.24330638929415</v>
       </c>
       <c r="AD7" t="n">
-        <v>50622.1158482739</v>
+        <v>60794.77127466874</v>
       </c>
       <c r="AE7" t="n">
-        <v>69263.41219371832</v>
+        <v>83182.08813398847</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.64893965558708e-06</v>
+        <v>1.478872295249997e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.380642361111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>62653.0093457746</v>
+        <v>75243.30638929414</v>
       </c>
     </row>
     <row r="8">
@@ -21192,28 +21192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>50.16944081404137</v>
+        <v>60.34209624043622</v>
       </c>
       <c r="AB8" t="n">
-        <v>68.64404224126865</v>
+        <v>82.56271818153878</v>
       </c>
       <c r="AC8" t="n">
-        <v>62.09275119229532</v>
+        <v>74.68304823581488</v>
       </c>
       <c r="AD8" t="n">
-        <v>50169.44081404137</v>
+        <v>60342.09624043622</v>
       </c>
       <c r="AE8" t="n">
-        <v>68644.04224126865</v>
+        <v>82562.71818153879</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.702175871017774e-06</v>
+        <v>1.487975094811508e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.365451388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>62092.75119229533</v>
+        <v>74683.04823581487</v>
       </c>
     </row>
   </sheetData>
@@ -21489,28 +21489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.79111704530806</v>
+        <v>51.98163312423321</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.97098533389467</v>
+        <v>71.12356370835414</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.29726322492603</v>
+        <v>64.33563061059318</v>
       </c>
       <c r="AD2" t="n">
-        <v>35791.11704530806</v>
+        <v>51981.63312423321</v>
       </c>
       <c r="AE2" t="n">
-        <v>48970.98533389467</v>
+        <v>71123.56370835414</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.093043223595002e-06</v>
+        <v>1.949057979713815e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.91015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>44297.26322492604</v>
+        <v>64335.63061059319</v>
       </c>
     </row>
   </sheetData>
@@ -21786,28 +21786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.65497822494401</v>
+        <v>70.32612532053093</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.67662006414979</v>
+        <v>96.22330723319412</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.93134264050222</v>
+        <v>87.03988984114173</v>
       </c>
       <c r="AD2" t="n">
-        <v>51654.97822494401</v>
+        <v>70326.12532053093</v>
       </c>
       <c r="AE2" t="n">
-        <v>70676.62006414979</v>
+        <v>96223.30723319412</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.84967502206712e-06</v>
+        <v>1.446249665064988e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.888454861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>63931.34264050223</v>
+        <v>87039.88984114173</v>
       </c>
     </row>
     <row r="3">
@@ -21892,28 +21892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.06071987546751</v>
+        <v>53.3537125045262</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.28582075536846</v>
+        <v>73.00090324834019</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.53222663416926</v>
+        <v>66.03379949974617</v>
       </c>
       <c r="AD3" t="n">
-        <v>44060.7198754675</v>
+        <v>53353.7125045262</v>
       </c>
       <c r="AE3" t="n">
-        <v>60285.82075536846</v>
+        <v>73000.9032483402</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.420174390398094e-06</v>
+        <v>1.735603578322319e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.406684027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>54532.22663416925</v>
+        <v>66033.79949974616</v>
       </c>
     </row>
     <row r="4">
@@ -21998,28 +21998,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.09901446671346</v>
+        <v>52.39200709577215</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.96997298766358</v>
+        <v>71.68505548063531</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.34196153060977</v>
+        <v>64.84353439618667</v>
       </c>
       <c r="AD4" t="n">
-        <v>43099.01446671346</v>
+        <v>52392.00709577215</v>
       </c>
       <c r="AE4" t="n">
-        <v>58969.97298766358</v>
+        <v>71685.05548063532</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.635364261922248e-06</v>
+        <v>1.775250860374415e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.354600694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>53341.96153060976</v>
+        <v>64843.53439618667</v>
       </c>
     </row>
   </sheetData>
@@ -22295,28 +22295,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.68390265916199</v>
+        <v>81.39775640861527</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.08107808881681</v>
+        <v>111.3720013337944</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.72035765370211</v>
+        <v>100.7428138381112</v>
       </c>
       <c r="AD2" t="n">
-        <v>71683.90265916199</v>
+        <v>81397.75640861527</v>
       </c>
       <c r="AE2" t="n">
-        <v>98081.07808881681</v>
+        <v>111372.0013337944</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.717658529239099e-06</v>
+        <v>1.20006067193167e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.250868055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>88720.35765370211</v>
+        <v>100742.8138381112</v>
       </c>
     </row>
     <row r="3">
@@ -22401,28 +22401,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.58027620731173</v>
+        <v>60.37938130278561</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.20616535111925</v>
+        <v>82.61373324874606</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.6012260614867</v>
+        <v>74.72919449660799</v>
       </c>
       <c r="AD3" t="n">
-        <v>50580.27620731173</v>
+        <v>60379.38130278561</v>
       </c>
       <c r="AE3" t="n">
-        <v>69206.16535111926</v>
+        <v>82613.73324874605</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.397450495913019e-06</v>
+        <v>1.500143247945021e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.599826388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>62601.2260614867</v>
+        <v>74729.19449660799</v>
       </c>
     </row>
     <row r="4">
@@ -22507,28 +22507,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.40853542358502</v>
+        <v>56.0370483184667</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.49820556661303</v>
+        <v>76.67236168939299</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.43802594764007</v>
+        <v>69.35485910011032</v>
       </c>
       <c r="AD4" t="n">
-        <v>46408.53542358502</v>
+        <v>56037.0483184667</v>
       </c>
       <c r="AE4" t="n">
-        <v>63498.20556661303</v>
+        <v>76672.36168939299</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.185123403252389e-06</v>
+        <v>1.640855264539756e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.378472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>57438.02594764007</v>
+        <v>69354.85910011032</v>
       </c>
     </row>
     <row r="5">
@@ -22613,28 +22613,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>45.61405523333658</v>
+        <v>55.24256812821825</v>
       </c>
       <c r="AB5" t="n">
-        <v>62.41116272032338</v>
+        <v>75.58531884310332</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.45472894492572</v>
+        <v>68.37156209739598</v>
       </c>
       <c r="AD5" t="n">
-        <v>45614.05523333658</v>
+        <v>55242.56812821826</v>
       </c>
       <c r="AE5" t="n">
-        <v>62411.16272032338</v>
+        <v>75585.31884310332</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.285142165374941e-06</v>
+        <v>1.658722886473221e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.352430555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>56454.72894492572</v>
+        <v>68371.56209739597</v>
       </c>
     </row>
   </sheetData>
